--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_0_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_0_bus_resonant.xlsx
@@ -734,34 +734,34 @@
         <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186055</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104232</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803685</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.69313002715729E-11</v>
+        <v>-8.692324500259736E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -811,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279646671962</v>
+        <v>0.9526279646671961</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965612</v>
+        <v>0.9526279648965614</v>
       </c>
       <c r="Q3">
-        <v>1.457663626734654E-10</v>
+        <v>1.457603876293164E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279649233328</v>
+        <v>0.952627964923333</v>
       </c>
       <c r="Q4">
-        <v>1.564877793418781E-09</v>
+        <v>1.564884421704861E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279646315012</v>
+        <v>0.9526279646315011</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279649322567</v>
+        <v>0.9526279649322569</v>
       </c>
       <c r="Q5">
-        <v>2.03791869819514E-09</v>
+        <v>2.037920387562464E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322567</v>
+        <v>0.9526279649322569</v>
       </c>
       <c r="Q6">
-        <v>2.037914026690722E-09</v>
+        <v>2.037923683491897E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921377196</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="D2">
-        <v>3.734156921377196</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1101,37 +1101,37 @@
         <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186055</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104232</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
         <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2400406982758469</v>
+        <v>0.240040698275847</v>
       </c>
       <c r="P2">
-        <v>0.8960735769153692</v>
+        <v>0.8960735769153693</v>
       </c>
       <c r="Q2">
-        <v>5.766209884997132</v>
+        <v>5.766209884997136</v>
       </c>
       <c r="R2">
-        <v>-121.3466079962484</v>
+        <v>-121.3466079962483</v>
       </c>
       <c r="S2">
         <v>173.4315681772755</v>
@@ -1181,16 +1181,16 @@
         <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.2400406981630187</v>
+        <v>0.240040698163018</v>
       </c>
       <c r="P3">
         <v>0.8960735770061727</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977196</v>
+        <v>5.766209884977195</v>
       </c>
       <c r="R3">
-        <v>-121.3466079609364</v>
+        <v>-121.3466079609365</v>
       </c>
       <c r="S3">
         <v>173.4315681785684</v>
@@ -1240,13 +1240,13 @@
         <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651691</v>
+        <v>0.2400406981651684</v>
       </c>
       <c r="P4">
         <v>0.8960735770323213</v>
       </c>
       <c r="Q4">
-        <v>5.766209886018072</v>
+        <v>5.766209886018084</v>
       </c>
       <c r="R4">
         <v>-121.346607946951</v>
@@ -1299,16 +1299,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658858</v>
+        <v>0.2400406981658851</v>
       </c>
       <c r="P5">
-        <v>0.8960735770410375</v>
+        <v>0.8960735770410376</v>
       </c>
       <c r="Q5">
-        <v>5.766209886365041</v>
+        <v>5.766209886365039</v>
       </c>
       <c r="R5">
-        <v>-121.3466079422891</v>
+        <v>-121.3466079422892</v>
       </c>
       <c r="S5">
         <v>173.4315681774384</v>
@@ -1358,13 +1358,13 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658857</v>
+        <v>0.2400406981658851</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410375</v>
+        <v>0.8960735770410376</v>
       </c>
       <c r="Q6">
-        <v>5.76620988636504</v>
+        <v>5.766209886365041</v>
       </c>
       <c r="R6">
         <v>-121.3466079422892</v>
@@ -1453,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.734156921377196</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="D2">
-        <v>3.734156921377196</v>
+        <v>3.734156921377195</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1468,37 +1468,37 @@
         <v>237.1508154128771</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186055</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104232</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
         <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2400406982758469</v>
+        <v>0.240040698275847</v>
       </c>
       <c r="P2">
-        <v>0.8960735769153692</v>
+        <v>0.8960735769153693</v>
       </c>
       <c r="Q2">
-        <v>5.766209884997132</v>
+        <v>5.766209884997136</v>
       </c>
       <c r="R2">
-        <v>-121.3466079962484</v>
+        <v>-121.3466079962483</v>
       </c>
       <c r="S2">
         <v>173.4315681772755</v>
@@ -1548,16 +1548,16 @@
         <v>1.02022644131502</v>
       </c>
       <c r="O3">
-        <v>0.2400406981630187</v>
+        <v>0.240040698163018</v>
       </c>
       <c r="P3">
         <v>0.8960735770061727</v>
       </c>
       <c r="Q3">
-        <v>5.766209884977196</v>
+        <v>5.766209884977195</v>
       </c>
       <c r="R3">
-        <v>-121.3466079609364</v>
+        <v>-121.3466079609365</v>
       </c>
       <c r="S3">
         <v>173.4315681785684</v>
@@ -1607,13 +1607,13 @@
         <v>1.020226441292307</v>
       </c>
       <c r="O4">
-        <v>0.2400406981651691</v>
+        <v>0.2400406981651684</v>
       </c>
       <c r="P4">
         <v>0.8960735770323213</v>
       </c>
       <c r="Q4">
-        <v>5.766209886018072</v>
+        <v>5.766209886018084</v>
       </c>
       <c r="R4">
         <v>-121.346607946951</v>
@@ -1666,16 +1666,16 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O5">
-        <v>0.2400406981658858</v>
+        <v>0.2400406981658851</v>
       </c>
       <c r="P5">
-        <v>0.8960735770410375</v>
+        <v>0.8960735770410376</v>
       </c>
       <c r="Q5">
-        <v>5.766209886365041</v>
+        <v>5.766209886365039</v>
       </c>
       <c r="R5">
-        <v>-121.3466079422891</v>
+        <v>-121.3466079422892</v>
       </c>
       <c r="S5">
         <v>173.4315681774384</v>
@@ -1725,13 +1725,13 @@
         <v>1.020226441284736</v>
       </c>
       <c r="O6">
-        <v>0.2400406981658857</v>
+        <v>0.2400406981658851</v>
       </c>
       <c r="P6">
-        <v>0.8960735770410375</v>
+        <v>0.8960735770410376</v>
       </c>
       <c r="Q6">
-        <v>5.76620988636504</v>
+        <v>5.766209886365041</v>
       </c>
       <c r="R6">
         <v>-121.3466079422892</v>
@@ -1820,37 +1820,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.63636376375428</v>
+        <v>3.636363763754281</v>
       </c>
       <c r="D2">
-        <v>3.63636376375428</v>
+        <v>3.636363763754281</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157662428</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="G2">
-        <v>230.9401157662428</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.504993724976226</v>
       </c>
       <c r="I2">
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246249</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695305</v>
+        <v>1.504993720695307</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
         <v>0.8660254037845058</v>
@@ -1862,7 +1862,7 @@
         <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.720017261727507E-10</v>
+        <v>1.719932446936001E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1921,7 +1921,7 @@
         <v>0.8660254038905281</v>
       </c>
       <c r="Q3">
-        <v>4.106776120588354E-10</v>
+        <v>4.10686370931241E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254039148656</v>
+        <v>0.8660254039148653</v>
       </c>
       <c r="Q4">
-        <v>3.135377070948688E-09</v>
+        <v>3.135392686339577E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254036465169</v>
+        <v>0.8660254036465171</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2039,13 +2039,13 @@
         <v>0.8660254039229779</v>
       </c>
       <c r="Q5">
-        <v>4.043602582335525E-09</v>
+        <v>4.043640403641217E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999959476</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254036465171</v>
+        <v>0.866025403646517</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403922978</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q6">
-        <v>4.043603796472358E-09</v>
+        <v>4.043641251539612E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999959476</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -2187,37 +2187,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.63636376375428</v>
+        <v>3.636363763754281</v>
       </c>
       <c r="D2">
-        <v>3.63636376375428</v>
+        <v>3.636363763754281</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>230.9401157662428</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="G2">
-        <v>230.9401157662428</v>
+        <v>230.9401157662429</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.504993724976226</v>
       </c>
       <c r="I2">
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246249</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695305</v>
+        <v>1.504993720695307</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
         <v>0.8660254037845058</v>
@@ -2229,7 +2229,7 @@
         <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.720017261727507E-10</v>
+        <v>1.719932446936001E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0.8660254038905281</v>
       </c>
       <c r="Q3">
-        <v>4.106776120588354E-10</v>
+        <v>4.10686370931241E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254039148656</v>
+        <v>0.8660254039148653</v>
       </c>
       <c r="Q4">
-        <v>3.135377070948688E-09</v>
+        <v>3.135392686339577E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254036465169</v>
+        <v>0.8660254036465171</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>0.8660254039229779</v>
       </c>
       <c r="Q5">
-        <v>4.043602582335525E-09</v>
+        <v>4.043640403641217E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999959476</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254036465171</v>
+        <v>0.866025403646517</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403922978</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q6">
-        <v>4.043603796472358E-09</v>
+        <v>4.043641251539612E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999959476</v>
+        <v>179.9999999959477</v>
       </c>
     </row>
   </sheetData>
@@ -2554,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.05536572122217</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="D2">
-        <v>3.05536572122217</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2569,34 +2569,34 @@
         <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.504993724976226</v>
       </c>
       <c r="I2">
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246249</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695305</v>
+        <v>1.504993720695307</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
         <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242865</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
         <v>0.8180121061818274</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115782</v>
+        <v>5.173976904115775</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
@@ -2646,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9220324943451748</v>
+        <v>0.9220324943451746</v>
       </c>
       <c r="O3">
-        <v>0.1964063472166728</v>
+        <v>0.196406347216673</v>
       </c>
       <c r="P3">
-        <v>0.8180121062689191</v>
+        <v>0.8180121062689187</v>
       </c>
       <c r="Q3">
-        <v>5.17397690411455</v>
+        <v>5.173976904114576</v>
       </c>
       <c r="R3">
-        <v>-122.1449202549969</v>
+        <v>-122.1449202549968</v>
       </c>
       <c r="S3">
         <v>174.1659345864976</v>
@@ -2708,13 +2708,13 @@
         <v>0.9220324943235478</v>
       </c>
       <c r="O4">
-        <v>0.1964063472443382</v>
+        <v>0.1964063472443387</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966171</v>
+        <v>0.8180121062966169</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219887</v>
+        <v>5.173976906219915</v>
       </c>
       <c r="R4">
         <v>-122.1449202329783</v>
@@ -2767,13 +2767,13 @@
         <v>0.9220324943163387</v>
       </c>
       <c r="O5">
-        <v>0.1964063472535601</v>
+        <v>0.1964063472535605</v>
       </c>
       <c r="P5">
-        <v>0.8180121063058498</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q5">
-        <v>5.173976906921666</v>
+        <v>5.173976906921697</v>
       </c>
       <c r="R5">
         <v>-122.1449202256387</v>
@@ -2826,13 +2826,13 @@
         <v>0.9220324943163387</v>
       </c>
       <c r="O6">
-        <v>0.1964063472535601</v>
+        <v>0.1964063472535606</v>
       </c>
       <c r="P6">
-        <v>0.8180121063058498</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q6">
-        <v>5.173976906921659</v>
+        <v>5.173976906921698</v>
       </c>
       <c r="R6">
         <v>-122.1449202256387</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.05536572122217</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="D2">
-        <v>3.05536572122217</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2936,34 +2936,34 @@
         <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.504993724976226</v>
       </c>
       <c r="I2">
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246249</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695305</v>
+        <v>1.504993720695307</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
         <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.1964063473242865</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
         <v>0.8180121061818274</v>
       </c>
       <c r="Q2">
-        <v>5.173976904115782</v>
+        <v>5.173976904115775</v>
       </c>
       <c r="R2">
         <v>-122.1449202961592</v>
@@ -3013,19 +3013,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9220324943451748</v>
+        <v>0.9220324943451746</v>
       </c>
       <c r="O3">
-        <v>0.1964063472166728</v>
+        <v>0.196406347216673</v>
       </c>
       <c r="P3">
-        <v>0.8180121062689191</v>
+        <v>0.8180121062689187</v>
       </c>
       <c r="Q3">
-        <v>5.17397690411455</v>
+        <v>5.173976904114576</v>
       </c>
       <c r="R3">
-        <v>-122.1449202549969</v>
+        <v>-122.1449202549968</v>
       </c>
       <c r="S3">
         <v>174.1659345864976</v>
@@ -3075,13 +3075,13 @@
         <v>0.9220324943235478</v>
       </c>
       <c r="O4">
-        <v>0.1964063472443382</v>
+        <v>0.1964063472443387</v>
       </c>
       <c r="P4">
-        <v>0.8180121062966171</v>
+        <v>0.8180121062966169</v>
       </c>
       <c r="Q4">
-        <v>5.173976906219887</v>
+        <v>5.173976906219915</v>
       </c>
       <c r="R4">
         <v>-122.1449202329783</v>
@@ -3134,13 +3134,13 @@
         <v>0.9220324943163387</v>
       </c>
       <c r="O5">
-        <v>0.1964063472535601</v>
+        <v>0.1964063472535605</v>
       </c>
       <c r="P5">
-        <v>0.8180121063058498</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q5">
-        <v>5.173976906921666</v>
+        <v>5.173976906921697</v>
       </c>
       <c r="R5">
         <v>-122.1449202256387</v>
@@ -3193,13 +3193,13 @@
         <v>0.9220324943163387</v>
       </c>
       <c r="O6">
-        <v>0.1964063472535601</v>
+        <v>0.1964063472535606</v>
       </c>
       <c r="P6">
-        <v>0.8180121063058498</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q6">
-        <v>5.173976906921659</v>
+        <v>5.173976906921698</v>
       </c>
       <c r="R6">
         <v>-122.1449202256387</v>
@@ -3306,40 +3306,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419441</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.32439447316344</v>
+        <v>1.324394473163434</v>
       </c>
       <c r="K2">
         <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104341</v>
+        <v>1.324394474104346</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740157</v>
+        <v>0.6350853098740151</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.635085309940939</v>
+        <v>0.6350853099409383</v>
       </c>
       <c r="Q2">
-        <v>59.99999999685332</v>
+        <v>59.99999999685334</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9999999996536</v>
+        <v>119.9999999996535</v>
       </c>
       <c r="T2">
         <v>5.248639108526412</v>
@@ -3386,19 +3386,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853099894114</v>
+        <v>0.635085309989411</v>
       </c>
       <c r="O3">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P3">
-        <v>0.6350853098300102</v>
+        <v>0.6350853098300093</v>
       </c>
       <c r="Q3">
-        <v>60.00000000239913</v>
+        <v>60.00000000239918</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S3">
         <v>120.0000000058974</v>
@@ -3448,19 +3448,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853100298051</v>
+        <v>0.6350853100298047</v>
       </c>
       <c r="O4">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P4">
-        <v>0.6350853098168615</v>
+        <v>0.6350853098168605</v>
       </c>
       <c r="Q4">
-        <v>60.00000000166489</v>
+        <v>60.00000000166494</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
         <v>120.0000000094205</v>
@@ -3510,19 +3510,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853100432696</v>
+        <v>0.6350853100432693</v>
       </c>
       <c r="O5">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P5">
-        <v>0.6350853098124786</v>
+        <v>0.6350853098124773</v>
       </c>
       <c r="Q5">
-        <v>60.00000000142015</v>
+        <v>60.00000000142021</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S5">
         <v>120.0000000105949</v>
@@ -3572,19 +3572,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853100432696</v>
+        <v>0.6350853100432693</v>
       </c>
       <c r="O6">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P6">
-        <v>0.6350853098124787</v>
+        <v>0.6350853098124777</v>
       </c>
       <c r="Q6">
-        <v>60.00000000142013</v>
+        <v>60.0000000014202</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S6">
         <v>120.0000000105949</v>
@@ -3691,40 +3691,40 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419441</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.32439447316344</v>
+        <v>1.324394473163434</v>
       </c>
       <c r="K2">
         <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104341</v>
+        <v>1.324394474104346</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6350853098740157</v>
+        <v>0.6350853098740151</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.635085309940939</v>
+        <v>0.6350853099409383</v>
       </c>
       <c r="Q2">
-        <v>59.99999999685332</v>
+        <v>59.99999999685334</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9999999996536</v>
+        <v>119.9999999996535</v>
       </c>
       <c r="T2">
         <v>5.248639108526412</v>
@@ -3771,19 +3771,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853099894114</v>
+        <v>0.635085309989411</v>
       </c>
       <c r="O3">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P3">
-        <v>0.6350853098300102</v>
+        <v>0.6350853098300093</v>
       </c>
       <c r="Q3">
-        <v>60.00000000239913</v>
+        <v>60.00000000239918</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S3">
         <v>120.0000000058974</v>
@@ -3833,19 +3833,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853100298051</v>
+        <v>0.6350853100298047</v>
       </c>
       <c r="O4">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P4">
-        <v>0.6350853098168615</v>
+        <v>0.6350853098168605</v>
       </c>
       <c r="Q4">
-        <v>60.00000000166489</v>
+        <v>60.00000000166494</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
         <v>120.0000000094205</v>
@@ -3895,19 +3895,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853100432696</v>
+        <v>0.6350853100432693</v>
       </c>
       <c r="O5">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P5">
-        <v>0.6350853098124786</v>
+        <v>0.6350853098124773</v>
       </c>
       <c r="Q5">
-        <v>60.00000000142015</v>
+        <v>60.00000000142021</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S5">
         <v>120.0000000105949</v>
@@ -3957,19 +3957,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853100432696</v>
+        <v>0.6350853100432693</v>
       </c>
       <c r="O6">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P6">
-        <v>0.6350853098124787</v>
+        <v>0.6350853098124777</v>
       </c>
       <c r="Q6">
-        <v>60.00000000142013</v>
+        <v>60.0000000014202</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999582</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S6">
         <v>120.0000000105949</v>
@@ -4076,37 +4076,37 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419441</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.32439447316344</v>
+        <v>1.324394473163434</v>
       </c>
       <c r="K2">
         <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104341</v>
+        <v>1.324394474104346</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.691839887727803</v>
+        <v>0.6918398877278025</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>1.100000023874157</v>
       </c>
       <c r="P2">
-        <v>0.8378427578966814</v>
+        <v>0.8378427578966808</v>
       </c>
       <c r="Q2">
-        <v>40.40951795604942</v>
+        <v>40.40951795604943</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
         <v>128.9574716956184</v>
@@ -4156,19 +4156,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6918398877714425</v>
+        <v>0.6918398877714423</v>
       </c>
       <c r="O3">
         <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.8378427578167501</v>
+        <v>0.8378427578167497</v>
       </c>
       <c r="Q3">
-        <v>40.40951796258038</v>
+        <v>40.4095179625804</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
         <v>128.9574716984651</v>
@@ -4218,19 +4218,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6918398877978499</v>
+        <v>0.6918398877978498</v>
       </c>
       <c r="O4">
         <v>1.100000023874165</v>
       </c>
       <c r="P4">
-        <v>0.8378427578056249</v>
+        <v>0.8378427578056242</v>
       </c>
       <c r="Q4">
-        <v>40.40951796344662</v>
+        <v>40.40951796344663</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S4">
         <v>128.9574717002523</v>
@@ -4280,19 +4280,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6918398878066523</v>
+        <v>0.6918398878066522</v>
       </c>
       <c r="O5">
         <v>1.100000023874165</v>
       </c>
       <c r="P5">
-        <v>0.8378427578019163</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q5">
-        <v>40.40951796373536</v>
+        <v>40.40951796373538</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S5">
         <v>128.957471700848</v>
@@ -4342,19 +4342,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6918398878066524</v>
+        <v>0.6918398878066522</v>
       </c>
       <c r="O6">
         <v>1.100000023874165</v>
       </c>
       <c r="P6">
-        <v>0.8378427578019165</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q6">
-        <v>40.40951796373535</v>
+        <v>40.40951796373538</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S6">
         <v>128.957471700848</v>
@@ -4612,37 +4612,37 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419441</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.2439445349699</v>
+        <v>13.24394453496989</v>
       </c>
       <c r="J2">
-        <v>1.32439447316344</v>
+        <v>1.324394473163434</v>
       </c>
       <c r="K2">
         <v>13.24394453564037</v>
       </c>
       <c r="L2">
-        <v>1.324394474104341</v>
+        <v>1.324394474104346</v>
       </c>
       <c r="M2">
         <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.691839887727803</v>
+        <v>0.6918398877278025</v>
       </c>
       <c r="O2">
-        <v>1.100000023874158</v>
+        <v>1.100000023874157</v>
       </c>
       <c r="P2">
-        <v>0.8378427578966814</v>
+        <v>0.8378427578966808</v>
       </c>
       <c r="Q2">
-        <v>40.40951795604942</v>
+        <v>40.40951795604943</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999653</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
         <v>128.9574716956184</v>
@@ -4692,19 +4692,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6918398877714425</v>
+        <v>0.6918398877714423</v>
       </c>
       <c r="O3">
         <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.8378427578167501</v>
+        <v>0.8378427578167497</v>
       </c>
       <c r="Q3">
-        <v>40.40951796258038</v>
+        <v>40.4095179625804</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999616</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
         <v>128.9574716984651</v>
@@ -4754,19 +4754,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6918398877978499</v>
+        <v>0.6918398877978498</v>
       </c>
       <c r="O4">
         <v>1.100000023874165</v>
       </c>
       <c r="P4">
-        <v>0.8378427578056249</v>
+        <v>0.8378427578056242</v>
       </c>
       <c r="Q4">
-        <v>40.40951796344662</v>
+        <v>40.40951796344663</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S4">
         <v>128.9574717002523</v>
@@ -4816,19 +4816,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6918398878066523</v>
+        <v>0.6918398878066522</v>
       </c>
       <c r="O5">
         <v>1.100000023874165</v>
       </c>
       <c r="P5">
-        <v>0.8378427578019163</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q5">
-        <v>40.40951796373536</v>
+        <v>40.40951796373538</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S5">
         <v>128.957471700848</v>
@@ -4878,19 +4878,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6918398878066524</v>
+        <v>0.6918398878066522</v>
       </c>
       <c r="O6">
         <v>1.100000023874165</v>
       </c>
       <c r="P6">
-        <v>0.8378427578019165</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q6">
-        <v>40.40951796373535</v>
+        <v>40.40951796373538</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999615</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S6">
         <v>128.957471700848</v>
@@ -4979,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.198911195792623</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760113625</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4997,43 +4997,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976291</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993722648794</v>
+        <v>1.504993722648793</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695424</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.5773502691155634</v>
+        <v>0.5773502691155636</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541777</v>
+        <v>0.5773502692541781</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647627</v>
+        <v>59.99999999647624</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9999999955744</v>
+        <v>119.9999999955745</v>
       </c>
       <c r="T2">
-        <v>4.198911195792623</v>
+        <v>4.198911195792622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5080,16 +5080,16 @@
         <v>0.5773502692231758</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P3">
-        <v>0.5773502691507314</v>
+        <v>0.5773502691507322</v>
       </c>
       <c r="Q3">
-        <v>60.00000000216514</v>
+        <v>60.00000000216509</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
         <v>120.0000000019794</v>
@@ -5139,19 +5139,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350269271291</v>
+        <v>0.5773502692712909</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P4">
-        <v>0.5773502691501716</v>
+        <v>0.5773502691501724</v>
       </c>
       <c r="Q4">
-        <v>59.9999999994725</v>
+        <v>59.99999999947245</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S4">
         <v>120.0000000074609</v>
@@ -5201,16 +5201,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502692873294</v>
+        <v>0.5773502692873291</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P5">
-        <v>0.5773502691499848</v>
+        <v>0.5773502691499857</v>
       </c>
       <c r="Q5">
-        <v>59.99999999857498</v>
+        <v>59.99999999857494</v>
       </c>
       <c r="R5">
         <v>-89.99999999999581</v>
@@ -5263,16 +5263,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502692873294</v>
+        <v>0.5773502692873292</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P6">
-        <v>0.577350269149985</v>
+        <v>0.5773502691499857</v>
       </c>
       <c r="Q6">
-        <v>59.99999999857495</v>
+        <v>59.99999999857493</v>
       </c>
       <c r="R6">
         <v>-89.99999999999582</v>
@@ -5364,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.198911195792623</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760113625</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5382,43 +5382,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976291</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993722648794</v>
+        <v>1.504993722648793</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695424</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.5773502691155634</v>
+        <v>0.5773502691155636</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P2">
-        <v>0.5773502692541777</v>
+        <v>0.5773502692541781</v>
       </c>
       <c r="Q2">
-        <v>59.99999999647627</v>
+        <v>59.99999999647624</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>119.9999999955744</v>
+        <v>119.9999999955745</v>
       </c>
       <c r="T2">
-        <v>4.198911195792623</v>
+        <v>4.198911195792622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5465,16 +5465,16 @@
         <v>0.5773502692231758</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962951</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P3">
-        <v>0.5773502691507314</v>
+        <v>0.5773502691507322</v>
       </c>
       <c r="Q3">
-        <v>60.00000000216514</v>
+        <v>60.00000000216509</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
         <v>120.0000000019794</v>
@@ -5524,19 +5524,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350269271291</v>
+        <v>0.5773502692712909</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P4">
-        <v>0.5773502691501716</v>
+        <v>0.5773502691501724</v>
       </c>
       <c r="Q4">
-        <v>59.9999999994725</v>
+        <v>59.99999999947245</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999581</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S4">
         <v>120.0000000074609</v>
@@ -5586,16 +5586,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502692873294</v>
+        <v>0.5773502692873291</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962952</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P5">
-        <v>0.5773502691499848</v>
+        <v>0.5773502691499857</v>
       </c>
       <c r="Q5">
-        <v>59.99999999857498</v>
+        <v>59.99999999857494</v>
       </c>
       <c r="R5">
         <v>-89.99999999999581</v>
@@ -5648,16 +5648,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502692873294</v>
+        <v>0.5773502692873292</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962953</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P6">
-        <v>0.577350269149985</v>
+        <v>0.5773502691499857</v>
       </c>
       <c r="Q6">
-        <v>59.99999999857495</v>
+        <v>59.99999999857493</v>
       </c>
       <c r="R6">
         <v>-89.99999999999582</v>
@@ -5767,31 +5767,31 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976291</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993722648794</v>
+        <v>1.504993722648793</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695424</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.6184267549947471</v>
+        <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908641</v>
+        <v>0.9999999999908644</v>
       </c>
       <c r="P2">
-        <v>0.7472997527351803</v>
+        <v>0.7472997527351809</v>
       </c>
       <c r="Q2">
         <v>41.77463363119259</v>
@@ -5850,13 +5850,13 @@
         <v>0.6184267550404208</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908705</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P3">
-        <v>0.7472997526577972</v>
+        <v>0.7472997526577978</v>
       </c>
       <c r="Q3">
-        <v>41.77463363810643</v>
+        <v>41.7746336381064</v>
       </c>
       <c r="R3">
         <v>-89.99999999999612</v>
@@ -5909,19 +5909,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6184267550800499</v>
+        <v>0.6184267550800497</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908705</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P4">
-        <v>0.7472997526545248</v>
+        <v>0.7472997526545253</v>
       </c>
       <c r="Q4">
-        <v>41.77463363817506</v>
+        <v>41.77463363817502</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999611</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S4">
         <v>128.1091583258393</v>
@@ -5971,19 +5971,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6184267550932595</v>
+        <v>0.6184267550932593</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908705</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P5">
-        <v>0.7472997526534337</v>
+        <v>0.7472997526534343</v>
       </c>
       <c r="Q5">
-        <v>41.77463363819793</v>
+        <v>41.7746336381979</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999611</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S5">
         <v>128.1091583268488</v>
@@ -6036,16 +6036,16 @@
         <v>0.6184267550932595</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908705</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P6">
-        <v>0.7472997526534337</v>
+        <v>0.7472997526534344</v>
       </c>
       <c r="Q6">
-        <v>41.77463363819793</v>
+        <v>41.7746336381979</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999611</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S6">
         <v>128.1091583268488</v>
@@ -6152,31 +6152,31 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976291</v>
+        <v>1.50499372497629</v>
       </c>
       <c r="I2">
         <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>1.504993722648794</v>
+        <v>1.504993722648793</v>
       </c>
       <c r="K2">
-        <v>15.04993697229387</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695424</v>
+        <v>1.504993720695426</v>
       </c>
       <c r="M2">
-        <v>15.04993697229304</v>
+        <v>15.04993697229305</v>
       </c>
       <c r="N2">
-        <v>0.6184267549947471</v>
+        <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>0.9999999999908641</v>
+        <v>0.9999999999908644</v>
       </c>
       <c r="P2">
-        <v>0.7472997527351803</v>
+        <v>0.7472997527351809</v>
       </c>
       <c r="Q2">
         <v>41.77463363119259</v>
@@ -6235,13 +6235,13 @@
         <v>0.6184267550404208</v>
       </c>
       <c r="O3">
-        <v>0.9999999999908705</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P3">
-        <v>0.7472997526577972</v>
+        <v>0.7472997526577978</v>
       </c>
       <c r="Q3">
-        <v>41.77463363810643</v>
+        <v>41.7746336381064</v>
       </c>
       <c r="R3">
         <v>-89.99999999999612</v>
@@ -6294,19 +6294,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6184267550800499</v>
+        <v>0.6184267550800497</v>
       </c>
       <c r="O4">
-        <v>0.9999999999908705</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P4">
-        <v>0.7472997526545248</v>
+        <v>0.7472997526545253</v>
       </c>
       <c r="Q4">
-        <v>41.77463363817506</v>
+        <v>41.77463363817502</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999611</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S4">
         <v>128.1091583258393</v>
@@ -6356,19 +6356,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6184267550932595</v>
+        <v>0.6184267550932593</v>
       </c>
       <c r="O5">
-        <v>0.9999999999908705</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P5">
-        <v>0.7472997526534337</v>
+        <v>0.7472997526534343</v>
       </c>
       <c r="Q5">
-        <v>41.77463363819793</v>
+        <v>41.7746336381979</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999611</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S5">
         <v>128.1091583268488</v>
@@ -6421,16 +6421,16 @@
         <v>0.6184267550932595</v>
       </c>
       <c r="O6">
-        <v>0.9999999999908705</v>
+        <v>0.9999999999908707</v>
       </c>
       <c r="P6">
-        <v>0.7472997526534337</v>
+        <v>0.7472997526534344</v>
       </c>
       <c r="Q6">
-        <v>41.77463363819793</v>
+        <v>41.7746336381979</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999611</v>
+        <v>-89.99999999999612</v>
       </c>
       <c r="S6">
         <v>128.1091583268488</v>
@@ -6537,25 +6537,25 @@
         <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186055</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104232</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6350853098347083</v>
+        <v>0.6350853098347087</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -6564,7 +6564,7 @@
         <v>0.635085309850708</v>
       </c>
       <c r="Q2">
-        <v>-4.877422116321289E-09</v>
+        <v>-4.877401827484758E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.248639108420278</v>
+        <v>5.248639108420279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6623,16 +6623,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853099661093</v>
+        <v>0.6350853099661096</v>
       </c>
       <c r="Q3">
-        <v>1.367228543559822E-09</v>
+        <v>1.367267096808335E-09</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999983958</v>
+        <v>-179.9999999983957</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6685,10 +6685,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853100065035</v>
+        <v>0.6350853100065038</v>
       </c>
       <c r="Q4">
-        <v>4.890337911766966E-09</v>
+        <v>4.890385154905001E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853097062432</v>
+        <v>0.6350853097062431</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.635085310019968</v>
+        <v>0.6350853100199684</v>
       </c>
       <c r="Q5">
-        <v>6.064705134310182E-09</v>
+        <v>6.064760005620857E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999993748</v>
+        <v>-179.9999999993747</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6809,16 +6809,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853100199682</v>
+        <v>0.6350853100199684</v>
       </c>
       <c r="Q6">
-        <v>6.064696994021831E-09</v>
+        <v>6.064760680438791E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999999993748</v>
+        <v>-179.9999999993747</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6922,25 +6922,25 @@
         <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186055</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104232</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.6350853098347083</v>
+        <v>0.6350853098347087</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -6949,7 +6949,7 @@
         <v>0.635085309850708</v>
       </c>
       <c r="Q2">
-        <v>-4.877422116321289E-09</v>
+        <v>-4.877401827484758E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6958,7 +6958,7 @@
         <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.248639108420278</v>
+        <v>5.248639108420279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7008,16 +7008,16 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853099661093</v>
+        <v>0.6350853099661096</v>
       </c>
       <c r="Q3">
-        <v>1.367228543559822E-09</v>
+        <v>1.367267096808335E-09</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999983958</v>
+        <v>-179.9999999983957</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7070,10 +7070,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853100065035</v>
+        <v>0.6350853100065038</v>
       </c>
       <c r="Q4">
-        <v>4.890337911766966E-09</v>
+        <v>4.890385154905001E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853097062432</v>
+        <v>0.6350853097062431</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.635085310019968</v>
+        <v>0.6350853100199684</v>
       </c>
       <c r="Q5">
-        <v>6.064705134310182E-09</v>
+        <v>6.064760005620857E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999993748</v>
+        <v>-179.9999999993747</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7194,16 +7194,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853100199682</v>
+        <v>0.6350853100199684</v>
       </c>
       <c r="Q6">
-        <v>6.064696994021831E-09</v>
+        <v>6.064760680438791E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999999993748</v>
+        <v>-179.9999999993747</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7292,10 +7292,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.617960382593723</v>
+        <v>3.617960382593722</v>
       </c>
       <c r="D2">
-        <v>3.617960382231206</v>
+        <v>3.617960382231205</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7307,34 +7307,34 @@
         <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186055</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104232</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
         <v>0.8378427578256962</v>
       </c>
       <c r="O2">
-        <v>0.4028253111898905</v>
+        <v>0.4028253111898906</v>
       </c>
       <c r="P2">
         <v>0.6918398877011794</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504779</v>
+        <v>8.957471693504786</v>
       </c>
       <c r="R2">
         <v>-115.8807585964592</v>
@@ -7343,7 +7343,7 @@
         <v>160.4095179569557</v>
       </c>
       <c r="T2">
-        <v>3.617960382370077</v>
+        <v>3.617960382370078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7387,16 +7387,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8378427577457519</v>
+        <v>0.8378427577457516</v>
       </c>
       <c r="O3">
-        <v>0.4028253110952154</v>
+        <v>0.4028253110952148</v>
       </c>
       <c r="P3">
-        <v>0.6918398877448089</v>
+        <v>0.6918398877448086</v>
       </c>
       <c r="Q3">
-        <v>8.957471696351648</v>
+        <v>8.957471696351645</v>
       </c>
       <c r="R3">
         <v>-115.8807585788046</v>
@@ -7452,19 +7452,19 @@
         <v>0.8378427577346264</v>
       </c>
       <c r="O4">
-        <v>0.4028253110970196</v>
+        <v>0.402825311097019</v>
       </c>
       <c r="P4">
         <v>0.6918398877712165</v>
       </c>
       <c r="Q4">
-        <v>8.957471698138814</v>
+        <v>8.957471698138825</v>
       </c>
       <c r="R4">
         <v>-115.8807585718119</v>
       </c>
       <c r="S4">
-        <v>160.4095179643536</v>
+        <v>160.4095179643537</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7514,19 +7514,19 @@
         <v>0.8378427577309179</v>
       </c>
       <c r="O5">
-        <v>0.402825311097621</v>
+        <v>0.4028253110976204</v>
       </c>
       <c r="P5">
-        <v>0.691839887780019</v>
+        <v>0.6918398877800189</v>
       </c>
       <c r="Q5">
-        <v>8.957471698734539</v>
+        <v>8.957471698734549</v>
       </c>
       <c r="R5">
         <v>-115.8807585694809</v>
       </c>
       <c r="S5">
-        <v>160.4095179646423</v>
+        <v>160.4095179646424</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8378427577309178</v>
+        <v>0.8378427577309179</v>
       </c>
       <c r="O6">
-        <v>0.4028253110976209</v>
+        <v>0.4028253110976207</v>
       </c>
       <c r="P6">
-        <v>0.691839887780019</v>
+        <v>0.6918398877800189</v>
       </c>
       <c r="Q6">
-        <v>8.957471698734535</v>
+        <v>8.957471698734555</v>
       </c>
       <c r="R6">
         <v>-115.8807585694809</v>
       </c>
       <c r="S6">
-        <v>160.4095179646423</v>
+        <v>160.4095179646424</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7677,10 +7677,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.617960382593723</v>
+        <v>3.617960382593722</v>
       </c>
       <c r="D2">
-        <v>3.617960382231206</v>
+        <v>3.617960382231205</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7692,34 +7692,34 @@
         <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186055</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104232</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
         <v>0.8378427578256962</v>
       </c>
       <c r="O2">
-        <v>0.4028253111898905</v>
+        <v>0.4028253111898906</v>
       </c>
       <c r="P2">
         <v>0.6918398877011794</v>
       </c>
       <c r="Q2">
-        <v>8.957471693504779</v>
+        <v>8.957471693504786</v>
       </c>
       <c r="R2">
         <v>-115.8807585964592</v>
@@ -7728,7 +7728,7 @@
         <v>160.4095179569557</v>
       </c>
       <c r="T2">
-        <v>3.617960382370077</v>
+        <v>3.617960382370078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7772,16 +7772,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8378427577457519</v>
+        <v>0.8378427577457516</v>
       </c>
       <c r="O3">
-        <v>0.4028253110952154</v>
+        <v>0.4028253110952148</v>
       </c>
       <c r="P3">
-        <v>0.6918398877448089</v>
+        <v>0.6918398877448086</v>
       </c>
       <c r="Q3">
-        <v>8.957471696351648</v>
+        <v>8.957471696351645</v>
       </c>
       <c r="R3">
         <v>-115.8807585788046</v>
@@ -7837,19 +7837,19 @@
         <v>0.8378427577346264</v>
       </c>
       <c r="O4">
-        <v>0.4028253110970196</v>
+        <v>0.402825311097019</v>
       </c>
       <c r="P4">
         <v>0.6918398877712165</v>
       </c>
       <c r="Q4">
-        <v>8.957471698138814</v>
+        <v>8.957471698138825</v>
       </c>
       <c r="R4">
         <v>-115.8807585718119</v>
       </c>
       <c r="S4">
-        <v>160.4095179643536</v>
+        <v>160.4095179643537</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7899,19 +7899,19 @@
         <v>0.8378427577309179</v>
       </c>
       <c r="O5">
-        <v>0.402825311097621</v>
+        <v>0.4028253110976204</v>
       </c>
       <c r="P5">
-        <v>0.691839887780019</v>
+        <v>0.6918398877800189</v>
       </c>
       <c r="Q5">
-        <v>8.957471698734539</v>
+        <v>8.957471698734549</v>
       </c>
       <c r="R5">
         <v>-115.8807585694809</v>
       </c>
       <c r="S5">
-        <v>160.4095179646423</v>
+        <v>160.4095179646424</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8378427577309178</v>
+        <v>0.8378427577309179</v>
       </c>
       <c r="O6">
-        <v>0.4028253110976209</v>
+        <v>0.4028253110976207</v>
       </c>
       <c r="P6">
-        <v>0.691839887780019</v>
+        <v>0.6918398877800189</v>
       </c>
       <c r="Q6">
-        <v>8.957471698734535</v>
+        <v>8.957471698734555</v>
       </c>
       <c r="R6">
         <v>-115.8807585694809</v>
       </c>
       <c r="S6">
-        <v>160.4095179646423</v>
+        <v>160.4095179646424</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8077,22 +8077,22 @@
         <v>266.6666759872409</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.504993724976226</v>
       </c>
       <c r="I2">
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246249</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695305</v>
+        <v>1.504993720695307</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
         <v>0.5773502691952339</v>
@@ -8104,7 +8104,7 @@
         <v>0.5773502691743763</v>
       </c>
       <c r="Q2">
-        <v>-5.812902260939895E-09</v>
+        <v>-5.812899021445933E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.198911195821409</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8157,16 +8157,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502690917831</v>
+        <v>0.577350269091783</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350269281993</v>
+        <v>0.5773502692819928</v>
       </c>
       <c r="Q3">
-        <v>5.928073259549103E-10</v>
+        <v>5.928553010373694E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -8219,16 +8219,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350269091223</v>
+        <v>0.5773502690912232</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773502693301082</v>
+        <v>0.5773502693301079</v>
       </c>
       <c r="Q4">
-        <v>6.074297308049517E-09</v>
+        <v>6.074352607146819E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502690910363</v>
+        <v>0.5773502690910364</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773502693461465</v>
+        <v>0.5773502693461461</v>
       </c>
       <c r="Q5">
-        <v>7.901465094475117E-09</v>
+        <v>7.901519478224597E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999957326</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,16 +8343,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502690910363</v>
+        <v>0.5773502690910364</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773502693461465</v>
+        <v>0.5773502693461461</v>
       </c>
       <c r="Q6">
-        <v>7.901457538235149E-09</v>
+        <v>7.901533533062368E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>266.6666759872409</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.504993724976226</v>
       </c>
       <c r="I2">
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246249</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695305</v>
+        <v>1.504993720695307</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
         <v>0.5773502691952339</v>
@@ -8640,7 +8640,7 @@
         <v>0.5773502691743763</v>
       </c>
       <c r="Q2">
-        <v>-5.812902260939895E-09</v>
+        <v>-5.812899021445933E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -8649,7 +8649,7 @@
         <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.198911195821409</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8693,16 +8693,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502690917831</v>
+        <v>0.577350269091783</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350269281993</v>
+        <v>0.5773502692819928</v>
       </c>
       <c r="Q3">
-        <v>5.928073259549103E-10</v>
+        <v>5.928553010373694E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -8755,16 +8755,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350269091223</v>
+        <v>0.5773502690912232</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773502693301082</v>
+        <v>0.5773502693301079</v>
       </c>
       <c r="Q4">
-        <v>6.074297308049517E-09</v>
+        <v>6.074352607146819E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502690910363</v>
+        <v>0.5773502690910364</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773502693461465</v>
+        <v>0.5773502693461461</v>
       </c>
       <c r="Q5">
-        <v>7.901465094475117E-09</v>
+        <v>7.901519478224597E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999957326</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,16 +8879,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502690910363</v>
+        <v>0.5773502690910364</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773502693461465</v>
+        <v>0.5773502693461461</v>
       </c>
       <c r="Q6">
-        <v>7.901457538235149E-09</v>
+        <v>7.901533533062368E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -8998,34 +8998,34 @@
         <v>191.3456832773375</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.504993724976226</v>
       </c>
       <c r="I2">
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246249</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695305</v>
+        <v>1.504993720695307</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
         <v>0.7472997527192562</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689599</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
         <v>0.6184267550384414</v>
       </c>
       <c r="Q2">
-        <v>8.109158318802276</v>
+        <v>8.10915831880229</v>
       </c>
       <c r="R2">
         <v>-117.0248837767961</v>
@@ -9081,19 +9081,19 @@
         <v>0.7472997526418608</v>
       </c>
       <c r="O3">
-        <v>0.3354590830770559</v>
+        <v>0.3354590830770565</v>
       </c>
       <c r="P3">
         <v>0.6184267550841057</v>
       </c>
       <c r="Q3">
-        <v>8.109158321931359</v>
+        <v>8.109158321931396</v>
       </c>
       <c r="R3">
-        <v>-117.0248837562165</v>
+        <v>-117.0248837562164</v>
       </c>
       <c r="S3">
-        <v>161.7746336387373</v>
+        <v>161.7746336387372</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,16 +9140,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7472997526385881</v>
+        <v>0.7472997526385882</v>
       </c>
       <c r="O4">
-        <v>0.3354590831006821</v>
+        <v>0.3354590831006827</v>
       </c>
       <c r="P4">
-        <v>0.6184267551237349</v>
+        <v>0.6184267551237347</v>
       </c>
       <c r="Q4">
-        <v>8.10915832495988</v>
+        <v>8.109158324959914</v>
       </c>
       <c r="R4">
         <v>-117.0248837452071</v>
@@ -9202,16 +9202,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.747299752637497</v>
+        <v>0.7472997526374975</v>
       </c>
       <c r="O5">
-        <v>0.3354590831085574</v>
+        <v>0.3354590831085581</v>
       </c>
       <c r="P5">
-        <v>0.6184267551369446</v>
+        <v>0.6184267551369441</v>
       </c>
       <c r="Q5">
-        <v>8.109158325969384</v>
+        <v>8.109158325969425</v>
       </c>
       <c r="R5">
         <v>-117.0248837415374</v>
@@ -9264,16 +9264,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.747299752637497</v>
+        <v>0.7472997526374971</v>
       </c>
       <c r="O6">
-        <v>0.3354590831085574</v>
+        <v>0.3354590831085582</v>
       </c>
       <c r="P6">
-        <v>0.6184267551369446</v>
+        <v>0.6184267551369441</v>
       </c>
       <c r="Q6">
-        <v>8.109158325969386</v>
+        <v>8.109158325969428</v>
       </c>
       <c r="R6">
         <v>-117.0248837415374</v>
@@ -9383,34 +9383,34 @@
         <v>191.3456832773375</v>
       </c>
       <c r="H2">
-        <v>1.504993724976225</v>
+        <v>1.504993724976226</v>
       </c>
       <c r="I2">
         <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>1.50499372124625</v>
+        <v>1.504993721246249</v>
       </c>
       <c r="K2">
         <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695305</v>
+        <v>1.504993720695307</v>
       </c>
       <c r="M2">
-        <v>15.04993697229335</v>
+        <v>15.04993697229334</v>
       </c>
       <c r="N2">
         <v>0.7472997527192562</v>
       </c>
       <c r="O2">
-        <v>0.3354590831689599</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
         <v>0.6184267550384414</v>
       </c>
       <c r="Q2">
-        <v>8.109158318802276</v>
+        <v>8.10915831880229</v>
       </c>
       <c r="R2">
         <v>-117.0248837767961</v>
@@ -9466,19 +9466,19 @@
         <v>0.7472997526418608</v>
       </c>
       <c r="O3">
-        <v>0.3354590830770559</v>
+        <v>0.3354590830770565</v>
       </c>
       <c r="P3">
         <v>0.6184267550841057</v>
       </c>
       <c r="Q3">
-        <v>8.109158321931359</v>
+        <v>8.109158321931396</v>
       </c>
       <c r="R3">
-        <v>-117.0248837562165</v>
+        <v>-117.0248837562164</v>
       </c>
       <c r="S3">
-        <v>161.7746336387373</v>
+        <v>161.7746336387372</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,16 +9525,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7472997526385881</v>
+        <v>0.7472997526385882</v>
       </c>
       <c r="O4">
-        <v>0.3354590831006821</v>
+        <v>0.3354590831006827</v>
       </c>
       <c r="P4">
-        <v>0.6184267551237349</v>
+        <v>0.6184267551237347</v>
       </c>
       <c r="Q4">
-        <v>8.10915832495988</v>
+        <v>8.109158324959914</v>
       </c>
       <c r="R4">
         <v>-117.0248837452071</v>
@@ -9587,16 +9587,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.747299752637497</v>
+        <v>0.7472997526374975</v>
       </c>
       <c r="O5">
-        <v>0.3354590831085574</v>
+        <v>0.3354590831085581</v>
       </c>
       <c r="P5">
-        <v>0.6184267551369446</v>
+        <v>0.6184267551369441</v>
       </c>
       <c r="Q5">
-        <v>8.109158325969384</v>
+        <v>8.109158325969425</v>
       </c>
       <c r="R5">
         <v>-117.0248837415374</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.747299752637497</v>
+        <v>0.7472997526374971</v>
       </c>
       <c r="O6">
-        <v>0.3354590831085574</v>
+        <v>0.3354590831085582</v>
       </c>
       <c r="P6">
-        <v>0.6184267551369446</v>
+        <v>0.6184267551369441</v>
       </c>
       <c r="Q6">
-        <v>8.109158325969386</v>
+        <v>8.109158325969428</v>
       </c>
       <c r="R6">
         <v>-117.0248837415374</v>
@@ -10520,34 +10520,34 @@
         <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.324394477419386</v>
+        <v>1.324394477419387</v>
       </c>
       <c r="I2">
-        <v>13.24394453497101</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.324394474186051</v>
+        <v>1.324394474186055</v>
       </c>
       <c r="K2">
         <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104235</v>
+        <v>1.324394474104232</v>
       </c>
       <c r="M2">
-        <v>13.24394453563988</v>
+        <v>13.24394453563989</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803685</v>
+        <v>0.9526279647803686</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833883</v>
+        <v>0.9526279647833884</v>
       </c>
       <c r="Q2">
-        <v>-8.69313002715729E-11</v>
+        <v>-8.692324500259736E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279646671962</v>
+        <v>0.9526279646671961</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648965612</v>
+        <v>0.9526279648965614</v>
       </c>
       <c r="Q3">
-        <v>1.457663626734654E-10</v>
+        <v>1.457603876293164E-10</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279649233328</v>
+        <v>0.952627964923333</v>
       </c>
       <c r="Q4">
-        <v>1.564877793418781E-09</v>
+        <v>1.564884421704861E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10715,16 +10715,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279646315012</v>
+        <v>0.9526279646315011</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279649322567</v>
+        <v>0.9526279649322569</v>
       </c>
       <c r="Q5">
-        <v>2.03791869819514E-09</v>
+        <v>2.037920387562464E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -10780,10 +10780,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279649322567</v>
+        <v>0.9526279649322569</v>
       </c>
       <c r="Q6">
-        <v>2.037914026690722E-09</v>
+        <v>2.037923683491897E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
